--- a/BillingCentre-DataDriven/src/test/java/Reports/Driver_Rapidsure.XLSX
+++ b/BillingCentre-DataDriven/src/test/java/Reports/Driver_Rapidsure.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="5" tabRatio="795" windowHeight="6675" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="7" firstSheet="5" tabRatio="795" windowHeight="6675" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="FT Forms" r:id="rId1" sheetId="2"/>
@@ -13,8 +13,8 @@
     <sheet name="PHPK1869983" r:id="rId4" sheetId="182"/>
     <sheet name="PHPK1869981" r:id="rId5" sheetId="181"/>
     <sheet name="PHPK1869979" r:id="rId6" sheetId="180"/>
-    <sheet name="PHPK1869974" r:id="rId7" sheetId="179"/>
-    <sheet name="PHPK1869973" r:id="rId8" sheetId="178"/>
+    <sheet name="PHPK18699741" r:id="rId7" sheetId="179"/>
+    <sheet name="PHPK18699731" r:id="rId8" sheetId="178"/>
     <sheet name="PHPK1869969" r:id="rId9" sheetId="177"/>
     <sheet name="PHPK1869965" r:id="rId10" sheetId="176"/>
     <sheet name="Results" r:id="rId11" sheetId="121"/>
@@ -2733,7 +2733,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="532">
   <si>
     <t>Address_line1</t>
   </si>
@@ -4403,55 +4403,49 @@
     <t>APPS_Written_Amount</t>
   </si>
   <si>
+    <t>PHPK18699741</t>
+  </si>
+  <si>
+    <t>PHPK18699731</t>
+  </si>
+  <si>
+    <t>StatusResult</t>
+  </si>
+  <si>
     <t>Active</t>
   </si>
   <si>
     <t>Written_Premium</t>
   </si>
   <si>
-    <t>$7,287.00</t>
-  </si>
-  <si>
-    <t>$1,381.70</t>
-  </si>
-  <si>
-    <t>Reinstated</t>
-  </si>
-  <si>
-    <t>$136.00</t>
-  </si>
-  <si>
-    <t>$50.00</t>
-  </si>
-  <si>
-    <t>$150.00</t>
-  </si>
-  <si>
-    <t>$122.00</t>
-  </si>
-  <si>
-    <t>$59.22</t>
-  </si>
-  <si>
-    <t>$1,258.00</t>
-  </si>
-  <si>
-    <t>$77.56</t>
-  </si>
-  <si>
-    <t>$2,264.00</t>
-  </si>
-  <si>
-    <t>$262.45</t>
-  </si>
-  <si>
-    <t>$1,462.00</t>
-  </si>
-  <si>
-    <t>$184.15</t>
-  </si>
-  <si>
-    <t>$135.00</t>
+    <t>$16,535.00</t>
+  </si>
+  <si>
+    <t>$5.00</t>
+  </si>
+  <si>
+    <t>$2,703.00</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>The search returned zero results.</t>
+  </si>
+  <si>
+    <t>$714.00</t>
+  </si>
+  <si>
+    <t>$37,221.00</t>
+  </si>
+  <si>
+    <t>$10.00</t>
+  </si>
+  <si>
+    <t>$1,892.00</t>
+  </si>
+  <si>
+    <t>$9,558.00</t>
   </si>
 </sst>
 </file>
@@ -4558,7 +4552,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4725,16 +4719,6 @@
         <fgColor indexed="55"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4766,7 +4750,7 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4876,8 +4860,6 @@
     <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7946,10 +7928,10 @@
         <v>463</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7960,10 +7942,10 @@
         <v>477</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7977,7 +7959,7 @@
         <v>382</v>
       </c>
       <c r="E3" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -8721,8 +8703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8918,7 +8900,7 @@
         <v>93618</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="G4" s="34">
         <v>172</v>
@@ -8969,7 +8951,7 @@
         <v>40243</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="G5" s="34">
         <v>181.22</v>
@@ -12187,11 +12169,11 @@
       <c r="C1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="55" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>517</v>
+      <c r="D1" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -12202,10 +12184,10 @@
         <v>484</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -12219,7 +12201,7 @@
         <v>382</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -12754,11 +12736,11 @@
       <c r="C1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>517</v>
+      <c r="D1" s="51" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -12769,10 +12751,10 @@
         <v>483</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12786,7 +12768,7 @@
         <v>382</v>
       </c>
       <c r="E3" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13050,11 +13032,11 @@
       <c r="C1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>517</v>
+      <c r="D1" s="49" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -13065,10 +13047,10 @@
         <v>482</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -13082,7 +13064,7 @@
         <v>382</v>
       </c>
       <c r="E3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -13627,11 +13609,11 @@
       <c r="C1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>517</v>
+      <c r="D1" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -13642,7 +13624,7 @@
         <v>481</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E2" t="s">
         <v>527</v>
@@ -13659,7 +13641,7 @@
         <v>382</v>
       </c>
       <c r="E3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -14302,9 +14284,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14312,7 +14296,6 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="18.07421875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -14325,11 +14308,8 @@
       <c r="C1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>517</v>
+      <c r="D1" s="46" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -14340,10 +14320,7 @@
         <v>480</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -14352,12 +14329,6 @@
       </c>
       <c r="B3" s="23">
         <v>181.22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -14597,7 +14568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14605,7 +14578,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="18.07421875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
@@ -14622,10 +14595,7 @@
         <v>463</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -14636,10 +14606,7 @@
         <v>479</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -14648,12 +14615,6 @@
       </c>
       <c r="B3" s="23">
         <v>172</v>
-      </c>
-      <c r="D3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -15175,7 +15136,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="18.07421875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.9453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="57.85546875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
@@ -15193,10 +15154,10 @@
         <v>463</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -15207,10 +15168,10 @@
         <v>478</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -15224,7 +15185,7 @@
         <v>382</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -15679,6 +15640,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Checked_x0020_Out_x0020_by xmlns="A61C245F-8E71-45BB-9F93-6F56F7FDA0FB">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Checked_x0020_Out_x0020_by>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100467E8CF26C9B2043B158DDF0AB8531BD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="89a1ee0cd11b8d30925b9d80a436eb7d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="A61C245F-8E71-45BB-9F93-6F56F7FDA0FB" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3896b405ca623a14759fdb490c4380f9" ns2:_="">
     <xsd:import namespace="A61C245F-8E71-45BB-9F93-6F56F7FDA0FB"/>
@@ -15818,30 +15802,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64EF1B99-24EF-4A71-86CD-5505A5122FC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="A61C245F-8E71-45BB-9F93-6F56F7FDA0FB"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Checked_x0020_Out_x0020_by xmlns="A61C245F-8E71-45BB-9F93-6F56F7FDA0FB">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Checked_x0020_Out_x0020_by>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775BCC5A-38BB-432F-A46D-F1A55EE87521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3116144D-116A-4AA5-AC10-DD7968A4B932}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15857,28 +15842,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775BCC5A-38BB-432F-A46D-F1A55EE87521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64EF1B99-24EF-4A71-86CD-5505A5122FC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="A61C245F-8E71-45BB-9F93-6F56F7FDA0FB"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/BillingCentre-DataDriven/src/test/java/Reports/Driver_Rapidsure.XLSX
+++ b/BillingCentre-DataDriven/src/test/java/Reports/Driver_Rapidsure.XLSX
@@ -2,26 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="5" tabRatio="795" windowHeight="6675" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6675" tabRatio="795" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="FT Forms" r:id="rId1" sheetId="2"/>
-    <sheet name="FS Forms" r:id="rId2" sheetId="5"/>
-    <sheet name="PHPK1869984" r:id="rId3" sheetId="183"/>
-    <sheet name="PHPK1869983" r:id="rId4" sheetId="182"/>
-    <sheet name="PHPK1869981" r:id="rId5" sheetId="181"/>
-    <sheet name="PHPK1869979" r:id="rId6" sheetId="180"/>
-    <sheet name="PHPK18699741" r:id="rId7" sheetId="179"/>
-    <sheet name="PHPK18699731" r:id="rId8" sheetId="178"/>
-    <sheet name="PHPK1869969" r:id="rId9" sheetId="177"/>
-    <sheet name="PHPK1869965" r:id="rId10" sheetId="176"/>
-    <sheet name="Results" r:id="rId11" sheetId="121"/>
+    <sheet name="FT Forms" sheetId="2" r:id="rId1"/>
+    <sheet name="FS Forms" sheetId="5" r:id="rId2"/>
+    <sheet name="PHPK1869984" sheetId="183" r:id="rId3"/>
+    <sheet name="PHPK1869983" sheetId="182" r:id="rId4"/>
+    <sheet name="PHPK1869981" sheetId="181" r:id="rId5"/>
+    <sheet name="PHPK1869979" sheetId="180" r:id="rId6"/>
+    <sheet name="PHPK1869974" sheetId="179" r:id="rId7"/>
+    <sheet name="PHPK1869973" sheetId="178" r:id="rId8"/>
+    <sheet name="PHPK1869969" sheetId="177" r:id="rId9"/>
+    <sheet name="PHPK1869965" sheetId="176" r:id="rId10"/>
+    <sheet name="Results" sheetId="121" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'FS Forms'!$A$2:$H$122</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'FT Forms'!$A$2:$I$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FS Forms'!$A$2:$H$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FT Forms'!$A$2:$I$94</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +33,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="G2">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1317,7 +1317,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="G2">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2601,7 +2601,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="O2">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2619,7 +2619,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="O3">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2635,7 +2635,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="O4">
+    <comment ref="O4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2651,7 +2651,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="O5">
+    <comment ref="O5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2665,7 +2665,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="O6">
+    <comment ref="O6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2682,7 +2682,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="O7">
+    <comment ref="O7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2698,7 +2698,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="O8">
+    <comment ref="O8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2712,7 +2712,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="O9">
+    <comment ref="O9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2733,7 +2733,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="517">
   <si>
     <t>Address_line1</t>
   </si>
@@ -4401,51 +4401,6 @@
   </si>
   <si>
     <t>APPS_Written_Amount</t>
-  </si>
-  <si>
-    <t>PHPK18699741</t>
-  </si>
-  <si>
-    <t>PHPK18699731</t>
-  </si>
-  <si>
-    <t>StatusResult</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Written_Premium</t>
-  </si>
-  <si>
-    <t>$16,535.00</t>
-  </si>
-  <si>
-    <t>$5.00</t>
-  </si>
-  <si>
-    <t>$2,703.00</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>The search returned zero results.</t>
-  </si>
-  <si>
-    <t>$714.00</t>
-  </si>
-  <si>
-    <t>$37,221.00</t>
-  </si>
-  <si>
-    <t>$10.00</t>
-  </si>
-  <si>
-    <t>$1,892.00</t>
-  </si>
-  <si>
-    <t>$9,558.00</t>
   </si>
 </sst>
 </file>
@@ -4552,7 +4507,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4649,76 +4604,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4745,130 +4630,116 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="1">
-      <alignment horizontal="center" textRotation="90" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="164" quotePrefix="1" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="4" fontId="3" numFmtId="164" quotePrefix="1" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="4" fontId="3" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="7" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 5" xfId="2"/>
     <cellStyle name="Normal_INM_In Process" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FF00FF00"/>
@@ -4890,10 +4761,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5051,7 +4922,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -5060,13 +4931,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5076,7 +4947,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5085,7 +4956,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5094,7 +4965,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5104,12 +4975,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -5140,7 +5011,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -5159,7 +5030,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -5171,22 +5042,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5203,7 +5074,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row customHeight="1" ht="39.75" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -5232,7 +5103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="22.5" r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -5348,7 +5219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="22.5" r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -5404,7 +5275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row hidden="1" ht="33.75" r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
@@ -5491,7 +5362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="22.5" r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
@@ -5547,7 +5418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="22.5" r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -5574,7 +5445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="22.5" r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
@@ -5655,7 +5526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row hidden="1" ht="33.75" r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>59</v>
       </c>
@@ -5684,7 +5555,7 @@
         <v>62</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>65</v>
       </c>
@@ -5713,7 +5584,7 @@
         <v>62</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>68</v>
       </c>
@@ -5771,7 +5642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="22.5" r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>74</v>
       </c>
@@ -5800,7 +5671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="22.5" r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>77</v>
       </c>
@@ -5829,7 +5700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="22.5" r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>79</v>
       </c>
@@ -5916,7 +5787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row hidden="1" ht="33.75" r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>88</v>
       </c>
@@ -5945,7 +5816,7 @@
         <v>90</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>91</v>
       </c>
@@ -6032,7 +5903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="22.5" r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>97</v>
       </c>
@@ -6117,7 +5988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>104</v>
       </c>
@@ -6146,7 +6017,7 @@
         <v>107</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>108</v>
       </c>
@@ -6175,7 +6046,7 @@
         <v>110</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>111</v>
       </c>
@@ -6204,7 +6075,7 @@
         <v>113</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>114</v>
       </c>
@@ -6233,7 +6104,7 @@
         <v>116</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>117</v>
       </c>
@@ -6262,7 +6133,7 @@
         <v>119</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>120</v>
       </c>
@@ -6291,7 +6162,7 @@
         <v>122</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>123</v>
       </c>
@@ -6320,7 +6191,7 @@
         <v>125</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>126</v>
       </c>
@@ -6349,7 +6220,7 @@
         <v>128</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>129</v>
       </c>
@@ -6378,7 +6249,7 @@
         <v>131</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>132</v>
       </c>
@@ -6407,7 +6278,7 @@
         <v>134</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>135</v>
       </c>
@@ -6436,7 +6307,7 @@
         <v>137</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>138</v>
       </c>
@@ -6465,7 +6336,7 @@
         <v>140</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>141</v>
       </c>
@@ -6494,7 +6365,7 @@
         <v>107</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>143</v>
       </c>
@@ -6523,7 +6394,7 @@
         <v>145</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>146</v>
       </c>
@@ -6552,7 +6423,7 @@
         <v>148</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>149</v>
       </c>
@@ -6581,7 +6452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>151</v>
       </c>
@@ -6610,7 +6481,7 @@
         <v>153</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>154</v>
       </c>
@@ -6639,7 +6510,7 @@
         <v>156</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>157</v>
       </c>
@@ -6668,7 +6539,7 @@
         <v>159</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>160</v>
       </c>
@@ -6697,7 +6568,7 @@
         <v>162</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>163</v>
       </c>
@@ -6726,7 +6597,7 @@
         <v>165</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>166</v>
       </c>
@@ -6755,7 +6626,7 @@
         <v>168</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>169</v>
       </c>
@@ -6784,7 +6655,7 @@
         <v>171</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>172</v>
       </c>
@@ -6813,7 +6684,7 @@
         <v>174</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>175</v>
       </c>
@@ -6842,7 +6713,7 @@
         <v>177</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>178</v>
       </c>
@@ -6871,7 +6742,7 @@
         <v>180</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>181</v>
       </c>
@@ -6900,7 +6771,7 @@
         <v>183</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>184</v>
       </c>
@@ -6929,7 +6800,7 @@
         <v>186</v>
       </c>
     </row>
-    <row ht="22.5" r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>187</v>
       </c>
@@ -6958,7 +6829,7 @@
         <v>190</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>191</v>
       </c>
@@ -6987,7 +6858,7 @@
         <v>193</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>194</v>
       </c>
@@ -7016,7 +6887,7 @@
         <v>196</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>197</v>
       </c>
@@ -7045,7 +6916,7 @@
         <v>93</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>199</v>
       </c>
@@ -7074,7 +6945,7 @@
         <v>201</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>202</v>
       </c>
@@ -7103,7 +6974,7 @@
         <v>204</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>205</v>
       </c>
@@ -7132,7 +7003,7 @@
         <v>207</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>208</v>
       </c>
@@ -7161,7 +7032,7 @@
         <v>210</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>211</v>
       </c>
@@ -7190,7 +7061,7 @@
         <v>213</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>214</v>
       </c>
@@ -7219,7 +7090,7 @@
         <v>216</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>217</v>
       </c>
@@ -7248,7 +7119,7 @@
         <v>219</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>220</v>
       </c>
@@ -7277,7 +7148,7 @@
         <v>222</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>223</v>
       </c>
@@ -7306,7 +7177,7 @@
         <v>225</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>226</v>
       </c>
@@ -7335,7 +7206,7 @@
         <v>228</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>229</v>
       </c>
@@ -7364,7 +7235,7 @@
         <v>231</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>232</v>
       </c>
@@ -7449,7 +7320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="22.5" r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>239</v>
       </c>
@@ -7478,7 +7349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="22.5" r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>242</v>
       </c>
@@ -7507,7 +7378,7 @@
         <v>190</v>
       </c>
     </row>
-    <row hidden="1" ht="22.5" r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>243</v>
       </c>
@@ -7536,7 +7407,7 @@
         <v>110</v>
       </c>
     </row>
-    <row ht="22.5" r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>246</v>
       </c>
@@ -7652,7 +7523,7 @@
         <v>190</v>
       </c>
     </row>
-    <row hidden="1" r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>255</v>
       </c>
@@ -7681,7 +7552,7 @@
         <v>107</v>
       </c>
     </row>
-    <row hidden="1" r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>257</v>
       </c>
@@ -7739,7 +7610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="22.5" r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>262</v>
       </c>
@@ -7768,7 +7639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row hidden="1" r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>264</v>
       </c>
@@ -7797,7 +7668,7 @@
         <v>266</v>
       </c>
     </row>
-    <row hidden="1" r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>267</v>
       </c>
@@ -7826,7 +7697,7 @@
         <v>107</v>
       </c>
     </row>
-    <row hidden="1" r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>269</v>
       </c>
@@ -7855,7 +7726,7 @@
         <v>196</v>
       </c>
     </row>
-    <row hidden="1" r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
@@ -7880,41 +7751,41 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" prompt="Please enter the Product Codes applicable to this document." promptTitle="Product Codes:" showErrorMessage="1" showInputMessage="1" sqref="G32:G91 G3:G10 G93"/>
-    <dataValidation allowBlank="1" prompt="C = Conditional_x000a_M = Mandatory_x000a_S = User Selected" promptTitle="Attachment" showErrorMessage="1" showInputMessage="1" sqref="E3:E17 E21:E91" type="list">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Product Codes:" prompt="Please enter the Product Codes applicable to this document." sqref="G32:G91 G3:G10 G93"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attachment" prompt="C = Conditional_x000a_M = Mandatory_x000a_S = User Selected" sqref="E3:E17 E21:E91">
       <formula1>"S, C, M"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" prompt="Indicate the Library from the drop down list._x000a_" promptTitle="Library" showErrorMessage="1" showInputMessage="1" sqref="C32:C43 C5:C10 C27:C30" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Library" prompt="Indicate the Library from the drop down list._x000a_" sqref="C32:C43 C5:C10 C27:C30">
       <formula1>"ACE, ACT, AUT, BOP, CRM, CRP, DOF, EBL, ELW, EPP, EXS, FPF, HCM, INM, LAW, LIA, LQL, MPL, PEX, PNI, POL, PPP, PRF, PRP, SAM, STP, ULT"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" prompt="Please type in the Edition Date using 4 digits. Ex: 0107_x000a_" promptTitle="Edition Date" showErrorMessage="1" showInputMessage="1" sqref="B3:B10 B21:B25 B27:B43"/>
-    <dataValidation allowBlank="1" operator="greaterThanOrEqual" prompt="Please type in the Form Number EXACTLY how it should appear within AQS/advantage._x000a__x000a_" promptTitle="Document Number" showErrorMessage="1" showInputMessage="1" sqref="A4:A10 A21:A25 A27:A43"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Edition Date" prompt="Please type in the Edition Date using 4 digits. Ex: 0107_x000a_" sqref="B3:B10 B21:B25 B27:B43"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Document Number" prompt="Please type in the Form Number EXACTLY how it should appear within AQS/advantage._x000a__x000a_" sqref="A4:A10 A21:A25 A27:A43"/>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.07421875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.1640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="59.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -7927,12 +7798,6 @@
       <c r="C1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>519</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>520</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7941,12 +7806,6 @@
       <c r="B2" t="s">
         <v>477</v>
       </c>
-      <c r="D2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E2" t="s">
-        <v>522</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -7954,12 +7813,6 @@
       </c>
       <c r="B3" s="23">
         <v>8446.07</v>
-      </c>
-      <c r="D3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -8694,38 +8547,38 @@
     <mergeCell ref="B43:B50"/>
     <mergeCell ref="B53:B56"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="portrait" r:id="rId1" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8900,7 +8753,7 @@
         <v>93618</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="G4" s="34">
         <v>172</v>
@@ -8951,7 +8804,7 @@
         <v>40243</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="G5" s="34">
         <v>181.22</v>
@@ -9190,26 +9043,26 @@
       <c r="Q9" s="33"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -9225,7 +9078,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row ht="45" r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -9251,7 +9104,7 @@
         <v>272</v>
       </c>
     </row>
-    <row ht="22.5" r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -9393,7 +9246,7 @@
       </c>
       <c r="H8" s="20"/>
     </row>
-    <row hidden="1" ht="33.75" r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
@@ -9487,7 +9340,7 @@
       </c>
       <c r="H12" s="20"/>
     </row>
-    <row ht="22.5" r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -9533,7 +9386,7 @@
       </c>
       <c r="H14" s="20"/>
     </row>
-    <row ht="22.5" r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
@@ -9621,7 +9474,7 @@
       </c>
       <c r="H18" s="20"/>
     </row>
-    <row ht="22.5" r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>59</v>
       </c>
@@ -9645,7 +9498,7 @@
       </c>
       <c r="H19" s="19"/>
     </row>
-    <row ht="22.5" r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
@@ -9669,7 +9522,7 @@
       </c>
       <c r="H20" s="20"/>
     </row>
-    <row ht="22.5" r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>68</v>
       </c>
@@ -9693,7 +9546,7 @@
       </c>
       <c r="H21" s="19"/>
     </row>
-    <row ht="22.5" r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>276</v>
       </c>
@@ -9717,7 +9570,7 @@
       </c>
       <c r="H22" s="20"/>
     </row>
-    <row ht="22.5" r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>70</v>
       </c>
@@ -9741,7 +9594,7 @@
       </c>
       <c r="H23" s="19"/>
     </row>
-    <row ht="22.5" r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>74</v>
       </c>
@@ -9765,7 +9618,7 @@
       </c>
       <c r="H24" s="20"/>
     </row>
-    <row ht="22.5" r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>77</v>
       </c>
@@ -9789,7 +9642,7 @@
       </c>
       <c r="H25" s="19"/>
     </row>
-    <row ht="22.5" r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>79</v>
       </c>
@@ -9837,7 +9690,7 @@
       </c>
       <c r="H27" s="19"/>
     </row>
-    <row ht="22.5" r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>280</v>
       </c>
@@ -9885,7 +9738,7 @@
       </c>
       <c r="H29" s="19"/>
     </row>
-    <row hidden="1" ht="33.75" r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>88</v>
       </c>
@@ -9909,7 +9762,7 @@
       </c>
       <c r="H30" s="20"/>
     </row>
-    <row hidden="1" ht="33.75" r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>91</v>
       </c>
@@ -10005,7 +9858,7 @@
       </c>
       <c r="H34" s="20"/>
     </row>
-    <row ht="22.5" r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>97</v>
       </c>
@@ -10029,7 +9882,7 @@
       </c>
       <c r="H35" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>285</v>
       </c>
@@ -10077,7 +9930,7 @@
       </c>
       <c r="H37" s="19"/>
     </row>
-    <row ht="22.5" r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>102</v>
       </c>
@@ -10099,7 +9952,7 @@
       </c>
       <c r="H38" s="20"/>
     </row>
-    <row ht="22.5" r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>289</v>
       </c>
@@ -10123,7 +9976,7 @@
       </c>
       <c r="H39" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>291</v>
       </c>
@@ -10147,7 +10000,7 @@
       </c>
       <c r="H40" s="20"/>
     </row>
-    <row ht="22.5" r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>294</v>
       </c>
@@ -10171,7 +10024,7 @@
       </c>
       <c r="H41" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>296</v>
       </c>
@@ -10195,7 +10048,7 @@
       </c>
       <c r="H42" s="20"/>
     </row>
-    <row ht="22.5" r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>299</v>
       </c>
@@ -10219,7 +10072,7 @@
       </c>
       <c r="H43" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>104</v>
       </c>
@@ -10243,7 +10096,7 @@
       </c>
       <c r="H44" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>108</v>
       </c>
@@ -10267,7 +10120,7 @@
       </c>
       <c r="H45" s="19"/>
     </row>
-    <row hidden="1" r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>301</v>
       </c>
@@ -10291,7 +10144,7 @@
       </c>
       <c r="H46" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>111</v>
       </c>
@@ -10315,7 +10168,7 @@
       </c>
       <c r="H47" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>114</v>
       </c>
@@ -10339,7 +10192,7 @@
       </c>
       <c r="H48" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>117</v>
       </c>
@@ -10363,7 +10216,7 @@
       </c>
       <c r="H49" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>120</v>
       </c>
@@ -10387,7 +10240,7 @@
       </c>
       <c r="H50" s="20"/>
     </row>
-    <row hidden="1" ht="33.75" r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>123</v>
       </c>
@@ -10411,7 +10264,7 @@
       </c>
       <c r="H51" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>126</v>
       </c>
@@ -10435,7 +10288,7 @@
       </c>
       <c r="H52" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>129</v>
       </c>
@@ -10459,7 +10312,7 @@
       </c>
       <c r="H53" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>132</v>
       </c>
@@ -10483,7 +10336,7 @@
       </c>
       <c r="H54" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>135</v>
       </c>
@@ -10507,7 +10360,7 @@
       </c>
       <c r="H55" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>138</v>
       </c>
@@ -10531,7 +10384,7 @@
       </c>
       <c r="H56" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>141</v>
       </c>
@@ -10555,7 +10408,7 @@
       </c>
       <c r="H57" s="19"/>
     </row>
-    <row hidden="1" r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>303</v>
       </c>
@@ -10579,7 +10432,7 @@
       </c>
       <c r="H58" s="20"/>
     </row>
-    <row hidden="1" r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>305</v>
       </c>
@@ -10603,7 +10456,7 @@
       </c>
       <c r="H59" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>143</v>
       </c>
@@ -10627,7 +10480,7 @@
       </c>
       <c r="H60" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>146</v>
       </c>
@@ -10651,7 +10504,7 @@
       </c>
       <c r="H61" s="19"/>
     </row>
-    <row ht="22.5" r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>149</v>
       </c>
@@ -10675,7 +10528,7 @@
       </c>
       <c r="H62" s="20"/>
     </row>
-    <row hidden="1" r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>307</v>
       </c>
@@ -10699,7 +10552,7 @@
       </c>
       <c r="H63" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>151</v>
       </c>
@@ -10723,7 +10576,7 @@
       </c>
       <c r="H64" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>309</v>
       </c>
@@ -10747,7 +10600,7 @@
       </c>
       <c r="H65" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>154</v>
       </c>
@@ -10771,7 +10624,7 @@
       </c>
       <c r="H66" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>157</v>
       </c>
@@ -10795,7 +10648,7 @@
       </c>
       <c r="H67" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>160</v>
       </c>
@@ -10819,7 +10672,7 @@
       </c>
       <c r="H68" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>163</v>
       </c>
@@ -10843,7 +10696,7 @@
       </c>
       <c r="H69" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>166</v>
       </c>
@@ -10867,7 +10720,7 @@
       </c>
       <c r="H70" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>169</v>
       </c>
@@ -10891,7 +10744,7 @@
       </c>
       <c r="H71" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>172</v>
       </c>
@@ -10915,7 +10768,7 @@
       </c>
       <c r="H72" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>175</v>
       </c>
@@ -10939,7 +10792,7 @@
       </c>
       <c r="H73" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>178</v>
       </c>
@@ -10963,7 +10816,7 @@
       </c>
       <c r="H74" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>181</v>
       </c>
@@ -10987,7 +10840,7 @@
       </c>
       <c r="H75" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>311</v>
       </c>
@@ -11011,7 +10864,7 @@
       </c>
       <c r="H76" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>313</v>
       </c>
@@ -11035,7 +10888,7 @@
       </c>
       <c r="H77" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>184</v>
       </c>
@@ -11059,7 +10912,7 @@
       </c>
       <c r="H78" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>187</v>
       </c>
@@ -11083,7 +10936,7 @@
       </c>
       <c r="H79" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>191</v>
       </c>
@@ -11107,7 +10960,7 @@
       </c>
       <c r="H80" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>194</v>
       </c>
@@ -11131,7 +10984,7 @@
       </c>
       <c r="H81" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>197</v>
       </c>
@@ -11155,7 +11008,7 @@
       </c>
       <c r="H82" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>199</v>
       </c>
@@ -11179,7 +11032,7 @@
       </c>
       <c r="H83" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>202</v>
       </c>
@@ -11203,7 +11056,7 @@
       </c>
       <c r="H84" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>205</v>
       </c>
@@ -11227,7 +11080,7 @@
       </c>
       <c r="H85" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>208</v>
       </c>
@@ -11251,7 +11104,7 @@
       </c>
       <c r="H86" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>211</v>
       </c>
@@ -11275,7 +11128,7 @@
       </c>
       <c r="H87" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>214</v>
       </c>
@@ -11299,7 +11152,7 @@
       </c>
       <c r="H88" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>217</v>
       </c>
@@ -11323,7 +11176,7 @@
       </c>
       <c r="H89" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>220</v>
       </c>
@@ -11347,7 +11200,7 @@
       </c>
       <c r="H90" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>223</v>
       </c>
@@ -11371,7 +11224,7 @@
       </c>
       <c r="H91" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>226</v>
       </c>
@@ -11395,7 +11248,7 @@
       </c>
       <c r="H92" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>229</v>
       </c>
@@ -11419,7 +11272,7 @@
       </c>
       <c r="H93" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>232</v>
       </c>
@@ -11465,7 +11318,7 @@
       </c>
       <c r="H95" s="19"/>
     </row>
-    <row ht="22.5" r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>237</v>
       </c>
@@ -11489,7 +11342,7 @@
       </c>
       <c r="H96" s="20"/>
     </row>
-    <row ht="22.5" r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>239</v>
       </c>
@@ -11513,7 +11366,7 @@
       </c>
       <c r="H97" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>242</v>
       </c>
@@ -11537,7 +11390,7 @@
       </c>
       <c r="H98" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>243</v>
       </c>
@@ -11561,7 +11414,7 @@
       </c>
       <c r="H99" s="19"/>
     </row>
-    <row ht="22.5" r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>246</v>
       </c>
@@ -11585,7 +11438,7 @@
       </c>
       <c r="H100" s="20"/>
     </row>
-    <row ht="22.5" r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>316</v>
       </c>
@@ -11657,7 +11510,7 @@
       </c>
       <c r="H103" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>252</v>
       </c>
@@ -11681,7 +11534,7 @@
       </c>
       <c r="H104" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>255</v>
       </c>
@@ -11705,7 +11558,7 @@
       </c>
       <c r="H105" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>257</v>
       </c>
@@ -11753,7 +11606,7 @@
       </c>
       <c r="H107" s="19"/>
     </row>
-    <row ht="22.5" r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>262</v>
       </c>
@@ -11777,7 +11630,7 @@
       </c>
       <c r="H108" s="20"/>
     </row>
-    <row hidden="1" r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>264</v>
       </c>
@@ -11801,7 +11654,7 @@
       </c>
       <c r="H109" s="19"/>
     </row>
-    <row hidden="1" r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>267</v>
       </c>
@@ -11825,7 +11678,7 @@
       </c>
       <c r="H110" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>269</v>
       </c>
@@ -11849,7 +11702,7 @@
       </c>
       <c r="H111" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>319</v>
       </c>
@@ -11873,7 +11726,7 @@
       </c>
       <c r="H112" s="20"/>
     </row>
-    <row hidden="1" r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>324</v>
       </c>
@@ -11897,7 +11750,7 @@
       </c>
       <c r="H113" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>327</v>
       </c>
@@ -11921,7 +11774,7 @@
       </c>
       <c r="H114" s="20"/>
     </row>
-    <row hidden="1" r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>330</v>
       </c>
@@ -11945,7 +11798,7 @@
       </c>
       <c r="H115" s="19"/>
     </row>
-    <row hidden="1" ht="22.5" r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>39</v>
       </c>
@@ -11969,7 +11822,7 @@
       </c>
       <c r="H116" s="20"/>
     </row>
-    <row hidden="1" r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>334</v>
       </c>
@@ -11993,7 +11846,7 @@
       </c>
       <c r="H117" s="19"/>
     </row>
-    <row hidden="1" r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>337</v>
       </c>
@@ -12017,7 +11870,7 @@
       </c>
       <c r="H118" s="20"/>
     </row>
-    <row hidden="1" ht="22.5" r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>339</v>
       </c>
@@ -12041,7 +11894,7 @@
       </c>
       <c r="H119" s="19"/>
     </row>
-    <row hidden="1" r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>342</v>
       </c>
@@ -12065,7 +11918,7 @@
       </c>
       <c r="H120" s="20"/>
     </row>
-    <row hidden="1" r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>39</v>
       </c>
@@ -12089,7 +11942,7 @@
       </c>
       <c r="H121" s="19"/>
     </row>
-    <row hidden="1" r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>347</v>
       </c>
@@ -12123,40 +11976,40 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" prompt="Please enter the Product Codes applicable to this document." promptTitle="Product Codes:" showErrorMessage="1" showInputMessage="1" sqref="G117:G122 G36:G109 G33 G28 G22 G3:G10 G111"/>
-    <dataValidation allowBlank="1" prompt="C = Conditional_x000a_M = Mandatory_x000a_S = User Selected" promptTitle="Attachment" showErrorMessage="1" showInputMessage="1" sqref="E116:E122 E111 E22:E109 E3:E18" type="list">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Product Codes:" prompt="Please enter the Product Codes applicable to this document." sqref="G117:G122 G36:G109 G33 G28 G22 G3:G10 G111"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attachment" prompt="C = Conditional_x000a_M = Mandatory_x000a_S = User Selected" sqref="E116:E122 E111 E22:E109 E3:E18">
       <formula1>"S, C, M"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" prompt="NV = Non-Variable Doc_x000a_V = Variable Doc" promptTitle="Variable Indicator" showErrorMessage="1" showInputMessage="1" sqref="D117:D122" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Variable Indicator" prompt="NV = Non-Variable Doc_x000a_V = Variable Doc" sqref="D117:D122">
       <formula1>"V, NV"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" prompt="Indicate the Library from the drop down list._x000a_" promptTitle="Library" showErrorMessage="1" showInputMessage="1" sqref="C30:C32 C34 C36:C40 C44:C54 C5:C10" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Library" prompt="Indicate the Library from the drop down list._x000a_" sqref="C30:C32 C34 C36:C40 C44:C54 C5:C10">
       <formula1>"ACE, ACT, AUT, BOP, CRM, CRP, DOF, EBL, ELW, EPP, EXS, FPF, HCM, INM, LAW, LIA, LQL, MPL, PEX, PNI, POL, PPP, PRF, PRP, SAM, STP, ULT"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" prompt="Please type in the Edition Date using 4 digits. Ex: 0107_x000a_" promptTitle="Edition Date" showErrorMessage="1" showInputMessage="1" sqref="B116:B122 B22:B28 B30:B54 B3:B10"/>
-    <dataValidation allowBlank="1" operator="greaterThanOrEqual" prompt="Please type in the Form Number EXACTLY how it should appear within AQS/advantage._x000a__x000a_" promptTitle="Document Number" showErrorMessage="1" showInputMessage="1" sqref="A116:A122 A22:A28 A30:A54 A4:A10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Edition Date" prompt="Please type in the Edition Date using 4 digits. Ex: 0107_x000a_" sqref="B116:B122 B22:B28 B30:B54 B3:B10"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Document Number" prompt="Please type in the Form Number EXACTLY how it should appear within AQS/advantage._x000a__x000a_" sqref="A116:A122 A22:A28 A30:A54 A4:A10"/>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.07421875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.1640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -12169,12 +12022,6 @@
       <c r="C1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>519</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>520</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12183,12 +12030,6 @@
       <c r="B2" t="s">
         <v>484</v>
       </c>
-      <c r="D2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E2" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -12196,12 +12037,6 @@
       </c>
       <c r="B3" s="23">
         <v>185</v>
-      </c>
-      <c r="D3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -12706,24 +12541,23 @@
     <mergeCell ref="B35:B40"/>
     <mergeCell ref="B43:B50"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="portrait" r:id="rId1" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.07421875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.9453125" collapsed="true"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -12736,12 +12570,6 @@
       <c r="C1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>519</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>520</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12750,12 +12578,6 @@
       <c r="B2" t="s">
         <v>483</v>
       </c>
-      <c r="D2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E2" t="s">
-        <v>530</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -12763,12 +12585,6 @@
       </c>
       <c r="B3" s="23">
         <v>1646.15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12999,27 +12815,27 @@
   <mergeCells count="1">
     <mergeCell ref="B29:B32"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="portrait" r:id="rId1" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.07421875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.1640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -13032,12 +12848,6 @@
       <c r="C1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>519</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>520</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -13046,12 +12856,6 @@
       <c r="B2" t="s">
         <v>482</v>
       </c>
-      <c r="D2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E2" t="s">
-        <v>528</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -13059,12 +12863,6 @@
       </c>
       <c r="B3" s="23">
         <v>1595.04</v>
-      </c>
-      <c r="D3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -13572,14 +13370,14 @@
     <mergeCell ref="B35:B40"/>
     <mergeCell ref="B43:B50"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="portrait" r:id="rId1" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
@@ -13587,16 +13385,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.07421875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.1640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="59.0" collapsed="true"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -13609,12 +13407,6 @@
       <c r="C1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>519</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>520</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -13623,12 +13415,6 @@
       <c r="B2" t="s">
         <v>481</v>
       </c>
-      <c r="D2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E2" t="s">
-        <v>527</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -13636,12 +13422,6 @@
       </c>
       <c r="B3" s="23">
         <v>3256.48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -14277,25 +14057,23 @@
     <mergeCell ref="B43:B50"/>
     <mergeCell ref="B53:B56"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="portrait" r:id="rId1" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.07421875" collapsed="true"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -14308,9 +14086,6 @@
       <c r="C1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>519</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -14318,9 +14093,6 @@
       </c>
       <c r="B2" t="s">
         <v>480</v>
-      </c>
-      <c r="D2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -14559,29 +14331,27 @@
   <mergeCells count="1">
     <mergeCell ref="B29:B32"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="portrait" r:id="rId1" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.07421875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -14594,9 +14364,6 @@
       <c r="C1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="45" t="s">
-        <v>519</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -14604,9 +14371,6 @@
       </c>
       <c r="B2" t="s">
         <v>479</v>
-      </c>
-      <c r="D2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -15119,28 +14883,27 @@
     <mergeCell ref="B35:B40"/>
     <mergeCell ref="B43:B50"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="portrait" r:id="rId1" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.07421875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.9453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="57.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -15153,12 +14916,6 @@
       <c r="C1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>519</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>520</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -15167,12 +14924,6 @@
       <c r="B2" t="s">
         <v>478</v>
       </c>
-      <c r="D2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E2" t="s">
-        <v>524</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -15180,12 +14931,6 @@
       </c>
       <c r="B3" s="23">
         <v>186</v>
-      </c>
-      <c r="D3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -15634,35 +15379,12 @@
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B35:B38"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="portrait" r:id="rId1" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Checked_x0020_Out_x0020_by xmlns="A61C245F-8E71-45BB-9F93-6F56F7FDA0FB">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Checked_x0020_Out_x0020_by>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100467E8CF26C9B2043B158DDF0AB8531BD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="89a1ee0cd11b8d30925b9d80a436eb7d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="A61C245F-8E71-45BB-9F93-6F56F7FDA0FB" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3896b405ca623a14759fdb490c4380f9" ns2:_="">
     <xsd:import namespace="A61C245F-8E71-45BB-9F93-6F56F7FDA0FB"/>
@@ -15802,31 +15524,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64EF1B99-24EF-4A71-86CD-5505A5122FC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="A61C245F-8E71-45BB-9F93-6F56F7FDA0FB"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775BCC5A-38BB-432F-A46D-F1A55EE87521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Checked_x0020_Out_x0020_by xmlns="A61C245F-8E71-45BB-9F93-6F56F7FDA0FB">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Checked_x0020_Out_x0020_by>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3116144D-116A-4AA5-AC10-DD7968A4B932}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15842,4 +15563,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775BCC5A-38BB-432F-A46D-F1A55EE87521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64EF1B99-24EF-4A71-86CD-5505A5122FC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="A61C245F-8E71-45BB-9F93-6F56F7FDA0FB"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>